--- a/Summary_Patient_acute_GvHD.xlsx
+++ b/Summary_Patient_acute_GvHD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\GvHDtrackR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8963A9E1-8032-488C-8E05-E6A35F48663F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685918FA-BDB5-4F42-B0C7-466F7C3BEDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Date stop mPDN</t>
   </si>
   <si>
-    <t>Topic steroid treatment</t>
-  </si>
-  <si>
-    <t>Date starting topic steroid treatment</t>
-  </si>
-  <si>
-    <t>Date stop topic steroid treatment</t>
+    <t>Topical steroid treatment</t>
+  </si>
+  <si>
+    <t>Date starting topical steroid treatment</t>
+  </si>
+  <si>
+    <t>Date stop topical steroid treatment</t>
   </si>
   <si>
     <t>Ruxolitinib treatment</t>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Date stop treatment</t>
+  </si>
+  <si>
+    <t>Azathioprine treatment</t>
+  </si>
+  <si>
+    <t>Date starting Azathioprine</t>
+  </si>
+  <si>
+    <t>Date stop Azathioprine</t>
   </si>
 </sst>
 </file>
@@ -573,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO1"/>
+  <dimension ref="A1:BR1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,6 +791,15 @@
       </c>
       <c r="BO1" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/Summary_Patient_acute_GvHD.xlsx
+++ b/Summary_Patient_acute_GvHD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nucer\Desktop\GvHD app\GvHDtrackR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685918FA-BDB5-4F42-B0C7-466F7C3BEDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C5BC382-CA9E-45D1-929E-CA3114EF7A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -164,15 +164,6 @@
   </si>
   <si>
     <t>Date stop Abatacept</t>
-  </si>
-  <si>
-    <t>Belumosudil treatment</t>
-  </si>
-  <si>
-    <t>Date starting Belumosudil</t>
-  </si>
-  <si>
-    <t>Date stop Belumosudil</t>
   </si>
   <si>
     <t>Begelomab treatment</t>
@@ -582,15 +573,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR1"/>
+  <dimension ref="A1:BO1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AY1" sqref="AW1:AY1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,15 +782,6 @@
       </c>
       <c r="BO1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
